--- a/Health/HealthCare Facilities/NoOfFacilitiesSG.xlsx
+++ b/Health/HealthCare Facilities/NoOfFacilitiesSG.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\junen\Documents\BAVP\Health\HealthCare Facilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{8C48C9B0-CD38-497C-B274-91E2060D9D00}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ABF16B7-4B20-46A1-B109-3AC2DFC427C6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NoOfFacilitiesSG" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Hospital Facilities</t>
   </si>
@@ -53,12 +53,45 @@
   </si>
   <si>
     <t>Public Dental Clinics</t>
+  </si>
+  <si>
+    <t>Year 2008</t>
+  </si>
+  <si>
+    <t>Year 2009</t>
+  </si>
+  <si>
+    <t>Year 2010</t>
+  </si>
+  <si>
+    <t>Year 2011</t>
+  </si>
+  <si>
+    <t>Year 2012</t>
+  </si>
+  <si>
+    <t>Year 2013</t>
+  </si>
+  <si>
+    <t>Year 2014</t>
+  </si>
+  <si>
+    <t>Year 2015</t>
+  </si>
+  <si>
+    <t>Year 2016</t>
+  </si>
+  <si>
+    <t>Year 2017</t>
+  </si>
+  <si>
+    <t>Year 2018</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -893,64 +926,57 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="B1" sqref="B1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29.33203125" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
-        <v>2006</v>
-      </c>
-      <c r="C1" s="1">
-        <v>2007</v>
-      </c>
-      <c r="D1" s="1">
-        <v>2008</v>
-      </c>
-      <c r="E1" s="1">
-        <v>2009</v>
-      </c>
-      <c r="F1" s="1">
-        <v>2010</v>
-      </c>
-      <c r="G1" s="1">
-        <v>2011</v>
-      </c>
-      <c r="H1" s="1">
-        <v>2012</v>
-      </c>
-      <c r="I1" s="1">
-        <v>2013</v>
-      </c>
-      <c r="J1" s="1">
-        <v>2014</v>
-      </c>
-      <c r="K1" s="1">
-        <v>2015</v>
-      </c>
-      <c r="L1" s="1">
-        <v>2016</v>
-      </c>
-      <c r="M1" s="1">
-        <v>2017</v>
-      </c>
-      <c r="N1" s="1">
-        <v>2018</v>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -961,45 +987,39 @@
         <v>14</v>
       </c>
       <c r="D2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J2">
+        <v>19</v>
+      </c>
+      <c r="K2">
         <v>18</v>
-      </c>
-      <c r="K2">
-        <v>19</v>
       </c>
       <c r="L2">
         <v>19</v>
       </c>
-      <c r="M2">
-        <v>18</v>
-      </c>
-      <c r="N2">
-        <v>19</v>
-      </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1031,22 +1051,16 @@
       <c r="L3">
         <v>1</v>
       </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4">
         <v>6</v>
@@ -1064,69 +1078,57 @@
         <v>6</v>
       </c>
       <c r="I4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L4">
         <v>8</v>
       </c>
-      <c r="M4">
-        <v>8</v>
-      </c>
-      <c r="N4">
-        <v>8</v>
-      </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
+        <v>63</v>
+      </c>
+      <c r="C5">
+        <v>60</v>
+      </c>
+      <c r="D5">
         <v>62</v>
       </c>
-      <c r="C5">
-        <v>62</v>
-      </c>
-      <c r="D5">
-        <v>63</v>
-      </c>
       <c r="E5">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F5">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G5">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H5">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I5">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="J5">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K5">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L5">
-        <v>69</v>
-      </c>
-      <c r="M5">
-        <v>73</v>
-      </c>
-      <c r="N5">
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1163,14 +1165,8 @@
       <c r="L6">
         <v>2</v>
       </c>
-      <c r="M6">
-        <v>2</v>
-      </c>
-      <c r="N6">
-        <v>2</v>
-      </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1202,191 +1198,161 @@
         <v>18</v>
       </c>
       <c r="K7">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L7">
-        <v>18</v>
-      </c>
-      <c r="M7">
         <v>20</v>
       </c>
-      <c r="N7">
-        <v>20</v>
-      </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1480</v>
+        <v>1608</v>
       </c>
       <c r="C8">
-        <v>1533</v>
+        <v>1628</v>
       </c>
       <c r="D8">
-        <v>1608</v>
+        <v>1651</v>
       </c>
       <c r="E8">
-        <v>1628</v>
+        <v>1685</v>
       </c>
       <c r="F8">
-        <v>1651</v>
+        <v>1743</v>
       </c>
       <c r="G8">
-        <v>1685</v>
+        <v>1805</v>
       </c>
       <c r="H8">
-        <v>1743</v>
+        <v>1868</v>
       </c>
       <c r="I8">
-        <v>1805</v>
+        <v>1933</v>
       </c>
       <c r="J8">
-        <v>1868</v>
+        <v>2025</v>
       </c>
       <c r="K8">
-        <v>1933</v>
+        <v>2116</v>
       </c>
       <c r="L8">
-        <v>2025</v>
-      </c>
-      <c r="M8">
-        <v>2116</v>
-      </c>
-      <c r="N8">
         <v>2222</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C9">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D9">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E9">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F9">
         <v>240</v>
       </c>
       <c r="G9">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="H9">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="I9">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="J9">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="K9">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="L9">
-        <v>253</v>
-      </c>
-      <c r="M9">
-        <v>251</v>
-      </c>
-      <c r="N9">
         <v>245</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>563</v>
+        <v>583</v>
       </c>
       <c r="C10">
-        <v>570</v>
+        <v>582</v>
       </c>
       <c r="D10">
-        <v>583</v>
+        <v>610</v>
       </c>
       <c r="E10">
-        <v>582</v>
+        <v>631</v>
       </c>
       <c r="F10">
-        <v>610</v>
+        <v>660</v>
       </c>
       <c r="G10">
-        <v>631</v>
+        <v>694</v>
       </c>
       <c r="H10">
-        <v>660</v>
+        <v>722</v>
       </c>
       <c r="I10">
-        <v>694</v>
+        <v>792</v>
       </c>
       <c r="J10">
-        <v>722</v>
+        <v>835</v>
       </c>
       <c r="K10">
-        <v>792</v>
+        <v>863</v>
       </c>
       <c r="L10">
-        <v>835</v>
-      </c>
-      <c r="M10">
-        <v>863</v>
-      </c>
-      <c r="N10">
         <v>876</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11">
+        <v>253</v>
+      </c>
+      <c r="C11">
+        <v>211</v>
+      </c>
+      <c r="D11">
+        <v>226</v>
+      </c>
+      <c r="E11">
         <v>249</v>
       </c>
-      <c r="C11">
-        <v>255</v>
-      </c>
-      <c r="D11">
+      <c r="F11">
+        <v>245</v>
+      </c>
+      <c r="G11">
+        <v>247</v>
+      </c>
+      <c r="H11">
         <v>253</v>
       </c>
-      <c r="E11">
-        <v>211</v>
-      </c>
-      <c r="F11">
-        <v>226</v>
-      </c>
-      <c r="G11">
-        <v>249</v>
-      </c>
-      <c r="H11">
-        <v>245</v>
-      </c>
       <c r="I11">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="J11">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="K11">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="L11">
-        <v>235</v>
-      </c>
-      <c r="M11">
-        <v>243</v>
-      </c>
-      <c r="N11">
         <v>258</v>
       </c>
     </row>
